--- a/ubahpassword.xlsx
+++ b/ubahpassword.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>passlama</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Pramitha98_</t>
+  </si>
+  <si>
+    <t>Hahaha98_</t>
   </si>
 </sst>
 </file>
@@ -377,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,6 +466,34 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ubahpassword.xlsx
+++ b/ubahpassword.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
   <si>
     <t>passlama</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>Hahaha98_</t>
+  </si>
+  <si>
+    <t>Christianti_98</t>
+  </si>
+  <si>
+    <t>Christi_98</t>
+  </si>
+  <si>
+    <t>Dirgaa_98</t>
   </si>
 </sst>
 </file>
@@ -380,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,6 +503,57 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ubahpassword.xlsx
+++ b/ubahpassword.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intan\git\ACCBid-Mobile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intan\git\ACCBid-Mobile-tantanver\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
   <si>
     <t>passlama</t>
   </si>
@@ -45,6 +45,33 @@
   </si>
   <si>
     <t>expected</t>
+  </si>
+  <si>
+    <t>Dirgantara_98</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>dirga</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>Pramitha98_</t>
+  </si>
+  <si>
+    <t>Hahaha98_</t>
+  </si>
+  <si>
+    <t>Christianti_98</t>
+  </si>
+  <si>
+    <t>Christi_98</t>
+  </si>
+  <si>
+    <t>Dirgaa_98</t>
   </si>
 </sst>
 </file>
@@ -362,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,6 +429,131 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
